--- a/xl/dashboard/dashboard.4.xlsx
+++ b/xl/dashboard/dashboard.4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\shared\projects\polylab\xl\dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="12495" windowHeight="8325"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="12495" windowHeight="8325" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="15" r:id="rId1"/>
@@ -15,12 +20,12 @@
   <definedNames>
     <definedName name="query">SUMMARY!$D$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
   <si>
     <t>A</t>
   </si>
@@ -82,9 +87,6 @@
     <t>ot_cost_m</t>
   </si>
   <si>
-    <t>by rez.appdev</t>
-  </si>
-  <si>
     <t>BASIC DASHBOARD v0.1</t>
   </si>
   <si>
@@ -100,9 +102,6 @@
     <t>hse_incidents</t>
   </si>
   <si>
-    <t>saudization</t>
-  </si>
-  <si>
     <t>kpi_id</t>
   </si>
   <si>
@@ -166,9 +165,6 @@
     <t>min(accidents)</t>
   </si>
   <si>
-    <t>max(saudization)</t>
-  </si>
-  <si>
     <t>profit_employee</t>
   </si>
   <si>
@@ -188,17 +184,23 @@
   </si>
   <si>
     <t>query</t>
+  </si>
+  <si>
+    <t>localization</t>
+  </si>
+  <si>
+    <t>max(localization)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +519,12 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -524,12 +532,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -559,9 +561,8 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
@@ -592,69 +593,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -687,31 +626,8 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFC0C0C0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC0C0C0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC0C0C0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FFC0C0C0"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
         </left>
@@ -742,7 +658,93 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFC0C0C0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC0C0C0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC0C0C0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC0C0C0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -773,7 +775,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -802,7 +804,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -834,7 +836,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -866,7 +868,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -900,7 +902,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -935,7 +937,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -970,7 +972,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1005,7 +1007,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1040,7 +1042,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1075,7 +1077,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1107,7 +1109,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1140,7 +1142,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1172,7 +1174,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1225,7 +1227,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1256,7 +1258,7 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FFC0C0C0"/>
@@ -1270,6 +1272,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1296,11 +1306,11 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="logTable" displayName="logTable" ref="B10:F40" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="id" dataDxfId="0"/>
-    <tableColumn id="3" name="kpi_id" dataDxfId="1"/>
-    <tableColumn id="2" name="timestamp" dataDxfId="4"/>
-    <tableColumn id="4" name="kpi_name" dataDxfId="3"/>
-    <tableColumn id="5" name="kpi_value" dataDxfId="2"/>
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="3" name="kpi_id" dataDxfId="3"/>
+    <tableColumn id="2" name="timestamp" dataDxfId="2"/>
+    <tableColumn id="4" name="kpi_name" dataDxfId="1"/>
+    <tableColumn id="5" name="kpi_value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1349,7 +1359,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1381,9 +1391,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1415,6 +1443,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1590,47 +1636,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.1328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="26">
+        <v>20</v>
+      </c>
+      <c r="J1" s="28">
         <f ca="1">NOW()</f>
-        <v>42618.02702465278</v>
-      </c>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:13" ht="12.75">
-      <c r="A2" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>43291.010029861114</v>
+      </c>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1645,274 +1689,274 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="D11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="C12" s="29">
+      <c r="G11" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="26">
         <f t="array" ref="C12">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v>15</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="26">
         <f t="array" ref="D12">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v>43073</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <f t="array" ref="E12">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v>3</v>
       </c>
-      <c r="F12" s="29" t="str">
+      <c r="F12" s="26" t="str">
         <f t="array" ref="F12">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v>utilization</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="26">
         <f t="array" ref="G12">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(1:1))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="C13" s="29">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C13" s="26">
         <f t="array" ref="C13">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v>21</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="26">
         <f t="array" ref="D13">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v>43253</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <f t="array" ref="E13">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v>3</v>
       </c>
-      <c r="F13" s="29" t="str">
+      <c r="F13" s="26" t="str">
         <f t="array" ref="F13">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v>utilization</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="26">
         <f t="array" ref="G13">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(2:2))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="C14" s="29">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C14" s="26">
         <f t="array" ref="C14">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v>27</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <f t="array" ref="D14">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v>43433</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="26">
         <f t="array" ref="E14">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v>3</v>
       </c>
-      <c r="F14" s="29" t="str">
+      <c r="F14" s="26" t="str">
         <f t="array" ref="F14">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v>utilization</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="26">
         <f t="array" ref="G14">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(3:3))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="C15" s="29" t="str">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C15" s="26" t="str">
         <f t="array" ref="C15">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D15" s="29" t="str">
+      <c r="D15" s="26" t="str">
         <f t="array" ref="D15">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="26" t="str">
         <f t="array" ref="E15">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F15" s="29" t="str">
+      <c r="F15" s="26" t="str">
         <f t="array" ref="F15">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G15" s="29" t="str">
+      <c r="G15" s="26" t="str">
         <f t="array" ref="G15">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(4:4))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="29" t="str">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C16" s="26" t="str">
         <f t="array" ref="C16">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D16" s="29" t="str">
+      <c r="D16" s="26" t="str">
         <f t="array" ref="D16">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="26" t="str">
         <f t="array" ref="E16">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F16" s="29" t="str">
+      <c r="F16" s="26" t="str">
         <f t="array" ref="F16">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G16" s="29" t="str">
+      <c r="G16" s="26" t="str">
         <f t="array" ref="G16">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(5:5))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="29" t="str">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="26" t="str">
         <f t="array" ref="C17">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="26" t="str">
         <f t="array" ref="D17">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="26" t="str">
         <f t="array" ref="E17">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F17" s="29" t="str">
+      <c r="F17" s="26" t="str">
         <f t="array" ref="F17">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G17" s="29" t="str">
+      <c r="G17" s="26" t="str">
         <f t="array" ref="G17">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(6:6))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="29" t="str">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="26" t="str">
         <f t="array" ref="C18">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D18" s="29" t="str">
+      <c r="D18" s="26" t="str">
         <f t="array" ref="D18">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E18" s="29" t="str">
+      <c r="E18" s="26" t="str">
         <f t="array" ref="E18">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F18" s="29" t="str">
+      <c r="F18" s="26" t="str">
         <f t="array" ref="F18">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G18" s="29" t="str">
+      <c r="G18" s="26" t="str">
         <f t="array" ref="G18">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(7:7))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="29" t="str">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="26" t="str">
         <f t="array" ref="C19">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D19" s="29" t="str">
+      <c r="D19" s="26" t="str">
         <f t="array" ref="D19">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="26" t="str">
         <f t="array" ref="E19">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F19" s="29" t="str">
+      <c r="F19" s="26" t="str">
         <f t="array" ref="F19">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G19" s="29" t="str">
+      <c r="G19" s="26" t="str">
         <f t="array" ref="G19">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(8:8))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="29" t="str">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="26" t="str">
         <f t="array" ref="C20">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D20" s="29" t="str">
+      <c r="D20" s="26" t="str">
         <f t="array" ref="D20">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="26" t="str">
         <f t="array" ref="E20">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F20" s="29" t="str">
+      <c r="F20" s="26" t="str">
         <f t="array" ref="F20">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G20" s="29" t="str">
+      <c r="G20" s="26" t="str">
         <f t="array" ref="G20">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(9:9))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="29" t="str">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" s="26" t="str">
         <f t="array" ref="C21">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D21" s="29" t="str">
+      <c r="D21" s="26" t="str">
         <f t="array" ref="D21">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="26" t="str">
         <f t="array" ref="E21">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F21" s="29" t="str">
+      <c r="F21" s="26" t="str">
         <f t="array" ref="F21">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G21" s="29" t="str">
+      <c r="G21" s="26" t="str">
         <f t="array" ref="G21">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(10:10))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="29" t="str">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" s="26" t="str">
         <f t="array" ref="C22">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(11:11))-1,MATCH(C$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="D22" s="29" t="str">
+      <c r="D22" s="26" t="str">
         <f t="array" ref="D22">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(11:11))-1,MATCH(D$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="E22" s="29" t="str">
+      <c r="E22" s="26" t="str">
         <f t="array" ref="E22">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(11:11))-1,MATCH(E$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="F22" s="29" t="str">
+      <c r="F22" s="26" t="str">
         <f t="array" ref="F22">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(11:11))-1,MATCH(F$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
-      <c r="G22" s="29" t="str">
+      <c r="G22" s="26" t="str">
         <f t="array" ref="G22">IFERROR(INDEX(logTable[], SMALL(IF(logTable[kpi_name]=query,ROW(logTable[kpi_name])),ROW(11:11))-1,MATCH(G$11, logTable[#Headers],0)), "")</f>
         <v/>
       </c>
@@ -1932,31 +1976,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B12" sqref="B12"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="4.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="4.265625" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.73046875" style="4" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="6.1328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.86328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1973,7 +2017,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -1990,7 +2034,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2007,7 +2051,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2068,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2085,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2082,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2145,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2162,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:13" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" collapsed="1">
+    <row r="10" spans="1:13" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2167,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>3</v>
@@ -2179,28 +2223,28 @@
         <v>7</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -2208,22 +2252,22 @@
         <v>42653</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11" s="18">
         <v>200</v>
@@ -2235,10 +2279,10 @@
         <v>130</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="5">
         <v>2</v>
       </c>
@@ -2250,19 +2294,19 @@
         <v>19</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>40</v>
-      </c>
       <c r="I12" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12" s="18">
         <v>150000</v>
@@ -2274,10 +2318,10 @@
         <v>150000</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>3</v>
       </c>
@@ -2286,22 +2330,22 @@
         <v>42713</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" s="23">
         <v>0.75</v>
@@ -2313,10 +2357,10 @@
         <v>0.85</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="5">
         <v>4</v>
       </c>
@@ -2325,22 +2369,22 @@
         <v>42743</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J14" s="18">
         <v>100</v>
@@ -2352,10 +2396,10 @@
         <v>100</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>5</v>
       </c>
@@ -2364,22 +2408,22 @@
         <v>42773</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J15" s="23">
         <v>0.35</v>
@@ -2393,10 +2437,10 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" s="9">
         <v>6</v>
       </c>
@@ -2405,22 +2449,22 @@
         <v>42803</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="J16" s="23">
         <v>0.35</v>
@@ -2434,7 +2478,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2458,26 +2502,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="11.65" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="4"/>
+    <col min="7" max="16384" width="11.3984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="1" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2487,7 +2531,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="2" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +2541,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="3" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -2507,7 +2551,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="4" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2517,7 +2561,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="5" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2527,7 +2571,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="6" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2547,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="7" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2561,7 +2605,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="8" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2571,7 +2615,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" outlineLevel="1">
+    <row r="9" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" collapsed="1">
+    <row r="10" spans="1:9" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2599,19 +2643,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="18">
         <v>1</v>
       </c>
@@ -2622,7 +2666,7 @@
         <v>42653</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="24">
         <v>10</v>
@@ -2631,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="18">
         <v>2</v>
       </c>
@@ -2649,7 +2693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="18">
         <v>3</v>
       </c>
@@ -2661,13 +2705,13 @@
         <v>42713</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="25">
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" s="18">
         <v>4</v>
       </c>
@@ -2679,13 +2723,13 @@
         <v>42743</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="24">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="18">
         <v>5</v>
       </c>
@@ -2697,13 +2741,13 @@
         <v>42773</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F15" s="25">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16" s="18">
         <v>6</v>
       </c>
@@ -2715,13 +2759,13 @@
         <v>42803</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16" s="24">
         <v>50000</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="18">
         <v>7</v>
       </c>
@@ -2733,14 +2777,14 @@
         <v>42833</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="18">
         <f>F11+10</f>
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="18">
         <v>8</v>
       </c>
@@ -2759,7 +2803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="18">
         <v>9</v>
       </c>
@@ -2771,14 +2815,14 @@
         <v>42893</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="19">
         <f>F13+0.05</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="18">
         <v>10</v>
       </c>
@@ -2790,14 +2834,14 @@
         <v>42923</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="18">
         <f>F14-2</f>
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="18">
         <v>11</v>
       </c>
@@ -2809,14 +2853,14 @@
         <v>42953</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F21" s="19">
         <f>F15+0.01</f>
         <v>0.31</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="18">
         <v>12</v>
       </c>
@@ -2828,14 +2872,14 @@
         <v>42983</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="18">
         <f>F16+5000</f>
         <v>55000</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="18">
         <v>13</v>
       </c>
@@ -2847,14 +2891,14 @@
         <v>43013</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <f>F17+10</f>
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="18">
         <v>14</v>
       </c>
@@ -2873,7 +2917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="18">
         <v>15</v>
       </c>
@@ -2885,14 +2929,14 @@
         <v>43073</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="19">
         <f>F19+0.05</f>
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="18">
         <v>16</v>
       </c>
@@ -2904,14 +2948,14 @@
         <v>43103</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <f>F20-2</f>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="18">
         <v>17</v>
       </c>
@@ -2923,14 +2967,14 @@
         <v>43133</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F27" s="19">
         <f>F21+0.01</f>
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="18">
         <v>18</v>
       </c>
@@ -2942,14 +2986,14 @@
         <v>43163</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F28" s="18">
         <f>F22+5000</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="18">
         <v>19</v>
       </c>
@@ -2961,14 +3005,14 @@
         <v>43193</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
         <f>F23+10</f>
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="18">
         <v>20</v>
       </c>
@@ -2987,7 +3031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="18">
         <v>21</v>
       </c>
@@ -2999,14 +3043,14 @@
         <v>43253</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="19">
         <f>F25+0.05</f>
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="18">
         <v>22</v>
       </c>
@@ -3018,14 +3062,14 @@
         <v>43283</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
         <f>F26-2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="18">
         <v>23</v>
       </c>
@@ -3037,14 +3081,14 @@
         <v>43313</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F33" s="19">
         <f>F27+0.01</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="18">
         <v>24</v>
       </c>
@@ -3056,14 +3100,14 @@
         <v>43343</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F34" s="18">
         <f>F28+5000</f>
         <v>65000</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="18">
         <v>25</v>
       </c>
@@ -3075,14 +3119,14 @@
         <v>43373</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <f>F29+10</f>
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="18">
         <v>26</v>
       </c>
@@ -3101,7 +3145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="18">
         <v>27</v>
       </c>
@@ -3113,14 +3157,14 @@
         <v>43433</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="19">
         <f>F31+0.05</f>
         <v>0.80000000000000016</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="18">
         <v>28</v>
       </c>
@@ -3132,14 +3176,14 @@
         <v>43463</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <f>F32-2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="18">
         <v>29</v>
       </c>
@@ -3151,14 +3195,14 @@
         <v>43493</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F39" s="19">
         <f>F33+0.01</f>
         <v>0.34</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="18">
         <v>30</v>
       </c>
@@ -3170,7 +3214,7 @@
         <v>43523</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F40" s="18">
         <f>F34+5000</f>
@@ -3192,25 +3236,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
